--- a/Testdata/Testdata.xlsx
+++ b/Testdata/Testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20382"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C985347-F767-494E-BE25-493B5A305F23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8AA719-CE6B-4217-BA9C-503BCB2DD9F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>saini.m92@gmail.com</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>password1489</t>
+  </si>
+  <si>
+    <t>saini1489@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
